--- a/0. Project Final/5. Palletizer/Palletizer Command.xlsx
+++ b/0. Project Final/5. Palletizer/Palletizer Command.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brainless\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\source\caktin_ws\Magang-OTGroup\0. Project Final\5. Palletizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC19B889-4AD2-4D64-A3E0-372F54A2ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE0E40-00DA-49D7-B56F-C8B68277AD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4CC5831C-00E2-4DE8-9FF3-B3FEB257A17C}"/>
   </bookViews>
@@ -502,150 +502,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5480F44-B168-4BE1-A985-F06EA75BFF53}">
-  <dimension ref="D7:G15"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="D7" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="45" x14ac:dyDescent="0.35">
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="45" x14ac:dyDescent="0.35">
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="45" x14ac:dyDescent="0.35">
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>